--- a/docs/enterprise-attack-v13.0/enterprise-attack-v13.0-campaigns.xlsx
+++ b/docs/enterprise-attack-v13.0/enterprise-attack-v13.0-campaigns.xlsx
@@ -412,7 +412,7 @@
     <t>(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
+    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
   </si>
   <si>
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
@@ -430,7 +430,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020)</t>
+    <t>(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -451,7 +451,7 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Volexity SolarWinds),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: MSTIC Nobelium Oct 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec RAINDROP January 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022)</t>
+    <t>(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Volexity SolarWinds),(Citation: MSTIC Nobelium Oct 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Symantec RAINDROP January 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021)</t>
   </si>
   <si>
     <t>source ID</t>
